--- a/teaching/traditional_assets/database/data/russia/russia_auto_truck.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_auto_truck.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.25545</v>
-      </c>
-      <c r="F2">
-        <v>1.66</v>
+        <v>-0.159</v>
       </c>
       <c r="G2">
-        <v>-0.007730836236933798</v>
+        <v>0.04727629588764241</v>
       </c>
       <c r="H2">
-        <v>-0.01336174713787954</v>
+        <v>0.03649095229509736</v>
       </c>
       <c r="I2">
-        <v>-0.02575908412145346</v>
+        <v>-0.02446405263334043</v>
       </c>
       <c r="J2">
-        <v>-0.02575908412145346</v>
+        <v>-0.02446405263334043</v>
       </c>
       <c r="K2">
-        <v>-12.55</v>
+        <v>-19.34</v>
       </c>
       <c r="L2">
-        <v>-0.0195215281234445</v>
+        <v>-0.02087973424222435</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>54.4</v>
+        <v>106.9</v>
       </c>
       <c r="V2">
-        <v>0.2434004474272931</v>
+        <v>0.4962859795728877</v>
       </c>
       <c r="W2">
-        <v>0.3191586724004852</v>
+        <v>0.3184989736619852</v>
       </c>
       <c r="X2">
-        <v>0.2185937172528317</v>
+        <v>0.1751585896915784</v>
       </c>
       <c r="Y2">
-        <v>0.1005649551476535</v>
+        <v>0.1433403839704068</v>
       </c>
       <c r="Z2">
-        <v>0.8482385538989311</v>
+        <v>1.428439022885695</v>
       </c>
       <c r="AA2">
-        <v>-0.02221581438538548</v>
+        <v>-0.03338947895082806</v>
       </c>
       <c r="AB2">
-        <v>0.0875682046363906</v>
+        <v>0.08639540415900573</v>
       </c>
       <c r="AC2">
-        <v>-0.1097840190217761</v>
+        <v>-0.1197848831098338</v>
       </c>
       <c r="AD2">
-        <v>441.9</v>
+        <v>359.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>441.9</v>
+        <v>359.1</v>
       </c>
       <c r="AG2">
-        <v>387.5</v>
+        <v>252.2</v>
       </c>
       <c r="AH2">
-        <v>0.6641118124436429</v>
+        <v>0.6250652741514361</v>
       </c>
       <c r="AI2">
-        <v>0.5955846676370693</v>
+        <v>0.4995270420654351</v>
       </c>
       <c r="AJ2">
-        <v>0.6342062193126022</v>
+        <v>0.5393498716852011</v>
       </c>
       <c r="AK2">
-        <v>0.5635871778462971</v>
+        <v>0.4121049707506782</v>
       </c>
       <c r="AL2">
-        <v>25.9</v>
+        <v>36.93</v>
       </c>
       <c r="AM2">
-        <v>23.6</v>
+        <v>35.02</v>
       </c>
       <c r="AN2">
-        <v>116.2894736842105</v>
+        <v>21.04923798358734</v>
       </c>
       <c r="AO2">
-        <v>-0.6393822393822395</v>
+        <v>-0.6135932845924722</v>
       </c>
       <c r="AP2">
-        <v>101.9736842105263</v>
+        <v>14.7831184056272</v>
       </c>
       <c r="AQ2">
-        <v>-0.7016949152542374</v>
+        <v>-0.6470588235294117</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sollers Public Joint Stock Company (MISX:SVAV)</t>
+          <t>Public Joint-Stock Company The Likhachov Plant (MISX:ZILL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0679</v>
-      </c>
-      <c r="F3">
-        <v>1.66</v>
+        <v>-0.423</v>
       </c>
       <c r="G3">
-        <v>0.01017450919289498</v>
+        <v>-4.784130688448075</v>
       </c>
       <c r="H3">
-        <v>0.004534122779682144</v>
+        <v>-4.784130688448075</v>
       </c>
       <c r="I3">
-        <v>-0.009598005609224058</v>
+        <v>-3.103850641773629</v>
       </c>
       <c r="J3">
-        <v>-0.009598005609224058</v>
+        <v>-3.103850641773629</v>
       </c>
       <c r="K3">
-        <v>-8.57</v>
+        <v>-6.64</v>
       </c>
       <c r="L3">
-        <v>-0.0133530694920536</v>
+        <v>-7.747957992998833</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>40</v>
+        <v>27.3</v>
       </c>
       <c r="V3">
-        <v>0.260586319218241</v>
+        <v>0.2948164146868251</v>
       </c>
       <c r="W3">
-        <v>-0.02834932186569633</v>
+        <v>0.680327868852459</v>
       </c>
       <c r="X3">
-        <v>0.1199159347312142</v>
+        <v>0.2050379392813463</v>
       </c>
       <c r="Y3">
-        <v>-0.1482652565969106</v>
+        <v>0.4752899295711127</v>
       </c>
       <c r="Z3">
-        <v>1.607031073941458</v>
+        <v>0.002821492065582406</v>
       </c>
       <c r="AA3">
-        <v>-0.01542429326188747</v>
+        <v>-0.008757489958517153</v>
       </c>
       <c r="AB3">
-        <v>0.08450650092620679</v>
+        <v>0.08997256237260873</v>
       </c>
       <c r="AC3">
-        <v>-0.09993079418809427</v>
+        <v>-0.09873005233112588</v>
       </c>
       <c r="AD3">
-        <v>115.1</v>
+        <v>211.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>115.1</v>
+        <v>211.3</v>
       </c>
       <c r="AG3">
-        <v>75.09999999999999</v>
+        <v>184</v>
       </c>
       <c r="AH3">
-        <v>0.4285182427401339</v>
+        <v>0.6952945047713064</v>
       </c>
       <c r="AI3">
-        <v>0.2780864943223001</v>
+        <v>1.020871581795342</v>
       </c>
       <c r="AJ3">
-        <v>0.3285214348206474</v>
+        <v>0.6652205350686912</v>
       </c>
       <c r="AK3">
-        <v>0.2008558438085049</v>
+        <v>1.024042742653606</v>
       </c>
       <c r="AL3">
-        <v>10.5</v>
+        <v>8.33</v>
       </c>
       <c r="AM3">
-        <v>10.5</v>
+        <v>6.42</v>
       </c>
       <c r="AN3">
-        <v>8.105633802816902</v>
+        <v>-80.03787878787878</v>
       </c>
       <c r="AO3">
-        <v>-0.5866666666666667</v>
+        <v>-0.319327731092437</v>
       </c>
       <c r="AP3">
-        <v>5.288732394366197</v>
+        <v>-69.69696969696969</v>
       </c>
       <c r="AQ3">
-        <v>-0.5866666666666667</v>
+        <v>-0.4143302180685359</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Public Joint-Stock Company The Likhachov Plant (MISX:ZILL)</t>
+          <t>Sollers Public Joint Stock Company (MISX:SVAV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,25 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.4429999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="G4">
-        <v>-10.64814814814815</v>
+        <v>0.05175059433758375</v>
       </c>
       <c r="H4">
-        <v>-10.64814814814815</v>
+        <v>0.04095526258915064</v>
       </c>
       <c r="I4">
-        <v>-9.62962962962963</v>
+        <v>-0.02161227577263886</v>
       </c>
       <c r="J4">
-        <v>-9.62962962962963</v>
+        <v>-0.02161227577263886</v>
       </c>
       <c r="K4">
-        <v>-3.98</v>
+        <v>-12.7</v>
       </c>
       <c r="L4">
-        <v>-3.685185185185185</v>
+        <v>-0.01372379511562567</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -895,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>14.4</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="V4">
-        <v>0.2057142857142857</v>
+        <v>0.6482084690553745</v>
       </c>
       <c r="W4">
-        <v>0.6666666666666667</v>
+        <v>-0.04332992152848857</v>
       </c>
       <c r="X4">
-        <v>0.3172714997744492</v>
+        <v>0.1452792401018105</v>
       </c>
       <c r="Y4">
-        <v>0.3493951668922176</v>
+        <v>-0.1886091616302991</v>
       </c>
       <c r="Z4">
-        <v>0.003012300225922517</v>
+        <v>2.684653321729039</v>
       </c>
       <c r="AA4">
-        <v>-0.0290073355088835</v>
+        <v>-0.05802146794313896</v>
       </c>
       <c r="AB4">
-        <v>0.09062990834657442</v>
+        <v>0.08281824594540273</v>
       </c>
       <c r="AC4">
-        <v>-0.1196372438554579</v>
+        <v>-0.1408397138885417</v>
       </c>
       <c r="AD4">
-        <v>326.8</v>
+        <v>147.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>326.8</v>
+        <v>147.8</v>
       </c>
       <c r="AG4">
-        <v>312.4</v>
+        <v>68.20000000000002</v>
       </c>
       <c r="AH4">
-        <v>0.8235887096774194</v>
+        <v>0.5461936437546193</v>
       </c>
       <c r="AI4">
-        <v>0.9961592391635676</v>
+        <v>0.2887282672396952</v>
       </c>
       <c r="AJ4">
-        <v>0.8169456066945607</v>
+        <v>0.3570680628272252</v>
       </c>
       <c r="AK4">
-        <v>0.9959829114327616</v>
+        <v>0.1577608142493639</v>
       </c>
       <c r="AL4">
-        <v>15.4</v>
+        <v>28.6</v>
       </c>
       <c r="AM4">
-        <v>13.1</v>
+        <v>28.6</v>
       </c>
       <c r="AN4">
-        <v>-31.42307692307692</v>
+        <v>7.502538071065991</v>
       </c>
       <c r="AO4">
-        <v>-0.6753246753246753</v>
+        <v>-0.6993006993006993</v>
       </c>
       <c r="AP4">
-        <v>-30.03846153846154</v>
+        <v>3.461928934010153</v>
       </c>
       <c r="AQ4">
-        <v>-0.7938931297709924</v>
+        <v>-0.6993006993006993</v>
       </c>
     </row>
   </sheetData>
